--- a/理财时代问题优化工作量评估-进度.xlsx
+++ b/理财时代问题优化工作量评估-进度.xlsx
@@ -147,6 +147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、</t>
     </r>
     <r>
@@ -955,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,6 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1439,13 +1446,13 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="46" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1470,12 +1477,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48" t="s">
+      <c r="I2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:13">
       <c r="A3" s="9"/>
@@ -1495,11 +1502,11 @@
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="30"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:13">
       <c r="A4" s="9"/>
@@ -1519,11 +1526,11 @@
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="30"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:13">
       <c r="A5" s="9"/>
@@ -1543,11 +1550,11 @@
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="28"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:13">
       <c r="A6" s="9"/>
@@ -1567,11 +1574,11 @@
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="28"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:13">
       <c r="A7" s="9"/>
@@ -1591,9 +1598,9 @@
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="28"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:13">
       <c r="A8" s="9"/>
@@ -1613,11 +1620,11 @@
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="30"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="49"/>
+      <c r="L8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:9">
       <c r="A9" s="9"/>
@@ -1835,7 +1842,7 @@
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="50"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" ht="17.25" spans="1:9">
       <c r="A21" s="9"/>
@@ -1973,7 +1980,7 @@
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="39">
@@ -1992,7 +1999,7 @@
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="39">
@@ -2011,7 +2018,7 @@
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="39">
@@ -2030,7 +2037,7 @@
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="39">
@@ -2049,7 +2056,7 @@
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="39">
@@ -2098,7 +2105,7 @@
     </row>
     <row r="36" ht="34.5" spans="2:7">
       <c r="B36" s="3"/>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="42" t="s">
         <v>57</v>
       </c>
       <c r="E36" t="s">
@@ -2112,22 +2119,22 @@
       </c>
     </row>
     <row r="37" ht="17.25" spans="4:4">
-      <c r="D37" s="42"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" ht="17.25" spans="4:4">
-      <c r="D38" s="42"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" ht="17.25" spans="4:4">
-      <c r="D39" s="42"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" ht="17.25" spans="4:4">
-      <c r="D40" s="42"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" ht="17.25" spans="4:4">
-      <c r="D41" s="43"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="44"/>
+      <c r="D42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/理财时代问题优化工作量评估-进度.xlsx
+++ b/理财时代问题优化工作量评估-进度.xlsx
@@ -435,31 +435,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,145 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,145 +819,145 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1927,7 +1927,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="39">
@@ -1946,7 +1946,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="28"/>
@@ -1961,7 +1961,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="39">
@@ -2075,7 +2075,7 @@
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="28"/>
@@ -2088,7 +2088,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="28" t="s">

--- a/理财时代问题优化工作量评估-进度.xlsx
+++ b/理财时代问题优化工作量评估-进度.xlsx
@@ -215,9 +215,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -435,6 +435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,6 +465,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,6 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,6 +525,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,12 +567,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,43 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,133 +831,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,11 +1020,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1630,7 +1630,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="19">
@@ -1642,14 +1642,14 @@
       <c r="G9" s="21">
         <v>4</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="30"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:9">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="19">
@@ -1661,7 +1661,7 @@
       <c r="G10" s="21">
         <v>4</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="30"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:9">
@@ -1680,7 +1680,7 @@
       <c r="G11" s="21">
         <v>0.5</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="30"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
@@ -1699,7 +1699,7 @@
       <c r="G12" s="21">
         <v>0.5</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="21"/>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:9">
@@ -1718,7 +1718,7 @@
       <c r="G13" s="21">
         <v>0.5</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="30"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
@@ -1737,7 +1737,7 @@
       <c r="G14" s="21">
         <v>0.5</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="21"/>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:9">
@@ -1756,7 +1756,7 @@
       <c r="G15" s="21">
         <v>2</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="30"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
@@ -1765,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="19">
@@ -1777,14 +1777,14 @@
       <c r="G16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="30"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="28"/>
@@ -1799,7 +1799,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="28" t="s">
@@ -1816,7 +1816,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="28"/>
@@ -1831,7 +1831,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="32" t="s">
@@ -1876,7 +1876,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="39">
@@ -1895,7 +1895,7 @@
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="39">
@@ -1914,7 +1914,7 @@
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="28"/>

--- a/理财时代问题优化工作量评估-进度.xlsx
+++ b/理财时代问题优化工作量评估-进度.xlsx
@@ -146,24 +146,7 @@
     <t>17、部分主页面UI调整</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未登录时，点击“账户”，应直接进入登录页面，不应先进入账户页面</t>
-    </r>
+    <t>1、未登录时，点击“账户”，应直接进入登录页面，不应先进入账户页面</t>
   </si>
   <si>
     <t>2、退出账号后，小红点提示仍然在</t>
@@ -215,9 +198,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1054,7 +1037,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,7 +1383,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1876,7 +1859,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="39">

--- a/理财时代问题优化工作量评估-进度.xlsx
+++ b/理财时代问题优化工作量评估-进度.xlsx
@@ -197,8 +197,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -249,6 +249,105 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -276,119 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -396,6 +382,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -418,6 +418,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,163 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,30 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -734,6 +710,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +773,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -799,152 +799,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,7 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1383,7 +1382,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1429,13 +1428,13 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1460,12 +1459,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49" t="s">
+      <c r="I2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="50"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:13">
       <c r="A3" s="9"/>
@@ -1485,11 +1484,11 @@
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="30"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:13">
       <c r="A4" s="9"/>
@@ -1509,11 +1508,11 @@
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="30"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:13">
       <c r="A5" s="9"/>
@@ -1533,11 +1532,11 @@
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="28"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:13">
       <c r="A6" s="9"/>
@@ -1557,11 +1556,11 @@
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="28"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="49"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:13">
       <c r="A7" s="9"/>
@@ -1581,9 +1580,9 @@
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="28"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:13">
       <c r="A8" s="9"/>
@@ -1603,11 +1602,11 @@
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="30"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="49"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:9">
       <c r="A9" s="9"/>
@@ -1767,7 +1766,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="28"/>
@@ -1799,7 +1798,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="28"/>
@@ -1814,7 +1813,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="32" t="s">
@@ -1825,7 +1824,7 @@
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" ht="17.25" spans="1:9">
       <c r="A21" s="9"/>
@@ -2039,7 +2038,7 @@
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="39">
@@ -2088,7 +2087,7 @@
     </row>
     <row r="36" ht="34.5" spans="2:7">
       <c r="B36" s="3"/>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="41" t="s">
         <v>57</v>
       </c>
       <c r="E36" t="s">
@@ -2102,22 +2101,22 @@
       </c>
     </row>
     <row r="37" ht="17.25" spans="4:4">
-      <c r="D37" s="43"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" ht="17.25" spans="4:4">
-      <c r="D38" s="43"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" ht="17.25" spans="4:4">
-      <c r="D39" s="43"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" ht="17.25" spans="4:4">
-      <c r="D40" s="43"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" ht="17.25" spans="4:4">
-      <c r="D41" s="44"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="45"/>
+      <c r="D42" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/理财时代问题优化工作量评估-进度.xlsx
+++ b/理财时代问题优化工作量评估-进度.xlsx
@@ -197,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -249,6 +249,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,30 +376,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,20 +396,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -418,18 +418,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,6 +484,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,145 +502,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +699,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,15 +734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,21 +788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -799,152 +799,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,9 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1428,13 +1425,13 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1459,12 +1456,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48" t="s">
+      <c r="I2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:13">
       <c r="A3" s="9"/>
@@ -1483,12 +1480,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="30"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48" t="s">
+      <c r="I3" s="29"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:13">
       <c r="A4" s="9"/>
@@ -1507,12 +1504,12 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="30"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48" t="s">
+      <c r="I4" s="29"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:13">
       <c r="A5" s="9"/>
@@ -1531,12 +1528,12 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="28"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48" t="s">
+      <c r="I5" s="27"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="49"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:13">
       <c r="A6" s="9"/>
@@ -1555,12 +1552,12 @@
         <v>1</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="28"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48" t="s">
+      <c r="I6" s="27"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:13">
       <c r="A7" s="9"/>
@@ -1579,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="28"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:13">
       <c r="A8" s="9"/>
@@ -1601,12 +1598,12 @@
         <v>8</v>
       </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="30"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48" t="s">
+      <c r="I8" s="29"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:9">
       <c r="A9" s="9"/>
@@ -1625,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:9">
       <c r="A10" s="9"/>
@@ -1644,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:9">
       <c r="A11" s="9"/>
@@ -1663,7 +1660,7 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A12" s="9"/>
@@ -1701,7 +1698,7 @@
         <v>0.5</v>
       </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A14" s="9"/>
@@ -1739,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
       <c r="A16" s="9"/>
@@ -1747,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="19">
@@ -1760,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
       <c r="A17" s="9"/>
@@ -1769,30 +1766,30 @@
       <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30">
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29">
         <v>0.5</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" ht="17.25" spans="1:9">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
       <c r="A19" s="9"/>
@@ -1801,13 +1798,13 @@
       <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30">
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29">
         <v>0.5</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="17.25" spans="1:9">
       <c r="A20" s="9"/>
@@ -1816,43 +1813,43 @@
       <c r="D20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="50"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" ht="17.25" spans="1:9">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
       <c r="A23" s="9"/>
@@ -1861,17 +1858,17 @@
       <c r="D23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="38">
         <v>43169</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>43169</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>1</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" ht="17.25" spans="1:9">
       <c r="A24" s="9"/>
@@ -1880,17 +1877,17 @@
       <c r="D24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="38">
         <v>43169</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>43169</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>1</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" ht="17.25" spans="1:9">
       <c r="A25" s="9"/>
@@ -1899,11 +1896,11 @@
       <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="30"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" ht="17.25" spans="1:9">
       <c r="A26" s="9"/>
@@ -1912,17 +1909,17 @@
       <c r="D26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="38">
         <v>43169</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>43169</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>1</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" ht="17.25" spans="1:9">
       <c r="A27" s="9"/>
@@ -1931,13 +1928,13 @@
       <c r="D27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30">
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29">
         <v>1</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" ht="17.25" spans="1:9">
       <c r="A28" s="9"/>
@@ -1946,17 +1943,17 @@
       <c r="D28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="38">
         <v>43169</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <v>43169</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>1</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" ht="17.25" spans="1:9">
       <c r="A29" s="9"/>
@@ -1965,17 +1962,17 @@
       <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="38">
         <v>43169</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>43169</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>0.5</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" ht="17.25" spans="1:9">
       <c r="A30" s="9"/>
@@ -1984,17 +1981,17 @@
       <c r="D30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="38">
         <v>43169</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>43169</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="29">
         <v>1</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" ht="17.25" spans="1:9">
       <c r="A31" s="9"/>
@@ -2003,17 +2000,17 @@
       <c r="D31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="38">
         <v>43169</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>43169</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>1</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" ht="17.25" spans="1:9">
       <c r="A32" s="9"/>
@@ -2022,36 +2019,36 @@
       <c r="D32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="38">
         <v>43169</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <v>43169</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <v>0.5</v>
       </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" ht="17.25" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="36" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>43169</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>43169</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="29">
         <v>0.5</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" ht="17.25" spans="1:9">
       <c r="A34" s="9"/>
@@ -2060,11 +2057,11 @@
       <c r="D34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="30"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" ht="17.25" spans="1:9">
       <c r="A35" s="9"/>
@@ -2073,21 +2070,21 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <v>24</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" ht="34.5" spans="2:7">
       <c r="B36" s="3"/>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E36" t="s">
@@ -2101,22 +2098,22 @@
       </c>
     </row>
     <row r="37" ht="17.25" spans="4:4">
-      <c r="D37" s="42"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" ht="17.25" spans="4:4">
-      <c r="D38" s="42"/>
+      <c r="D38" s="41"/>
     </row>
     <row r="39" ht="17.25" spans="4:4">
-      <c r="D39" s="42"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" ht="17.25" spans="4:4">
-      <c r="D40" s="42"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" ht="17.25" spans="4:4">
-      <c r="D41" s="43"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
